--- a/standard_formats/survey_units.xlsx
+++ b/standard_formats/survey_units.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auror\Documents\FISHGLOB\fishglob\standard_formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auroremaureaud/Documents/FISHGLOB/integrated_fishglob_surveys/standard_formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD1C60-8451-4BAA-BE97-2746E94B8AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB64F298-8FBC-C549-9FA4-91D6A3F58620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{76DA4FE0-7387-4ACF-9B9F-C49AB08877A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14180" xr2:uid="{76DA4FE0-7387-4ACF-9B9F-C49AB08877A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>AI</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>SPRING/SUMMER/FALL</t>
+  </si>
+  <si>
+    <t>Summer/Fall</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,18 +560,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BAE382-1BBF-4BAC-B9B3-815535D8B47B}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -585,12 +588,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -598,137 +601,140 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -736,17 +742,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -754,37 +760,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -792,7 +798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -800,7 +806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -808,32 +814,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
